--- a/DATA/IsoData/YELLIsoData.xlsx
+++ b/DATA/IsoData/YELLIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">ea6d24f0-ad85-4251-b2f1-5d0c0f2d68dc</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2165734d-9f2a-41cf-a7cd-6aa1831e3363</t>
   </si>
   <si>
     <t xml:space="preserve">YELL.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T180032Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59c2f3b5-bf57-47b0-91ab-d8cf759b6133</t>
+    <t xml:space="preserve">20210112T151243Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20e67123-f9da-41e7-9735-7af1897f593f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20190806.1155</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000054696</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154404Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b17073e8-a2e5-45c9-9f06-182bc562aa5e</t>
+    <t xml:space="preserve">20210112T153310Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d878b5a4-4b2b-4307-98fd-bb940c9ddc16</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20190821.0942</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000054510</t>
   </si>
   <si>
-    <t xml:space="preserve">93450bd8-0a75-4677-9331-08a2291902c6</t>
+    <t xml:space="preserve">d4d89705-92ab-4544-a2c5-0f5c3bcae986</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20190905.1000</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000114163</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160143Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560ee57e-5c67-419a-bc32-451ee9072f9a</t>
+    <t xml:space="preserve">20210112T154300Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39200f38-e20b-4e84-bec1-347d8c8c2f8f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20190917.1000</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000114136</t>
   </si>
   <si>
-    <t xml:space="preserve">06c3b253-ca30-4220-8d2c-d08fa89b8baf</t>
+    <t xml:space="preserve">cf245b14-3962-4a4c-b0f4-25035881b2f2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20191002.1126</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000115555</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160659Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23f0b691-ffab-4ebb-8472-50f18628ff54</t>
+    <t xml:space="preserve">20210112T154055Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4ce4d4b5-437c-4191-952d-6429f074bd15</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20191016.1010</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000114411</t>
   </si>
   <si>
-    <t xml:space="preserve">41b9e252-8c14-402a-8d0b-84d3dce949e7</t>
+    <t xml:space="preserve">bff633ed-d5d2-4a68-a985-43015aeb11e3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20191030.1020</t>
@@ -182,7 +188,7 @@
     <t xml:space="preserve">A00000114441</t>
   </si>
   <si>
-    <t xml:space="preserve">6fe7abda-36b4-4838-aef1-463f6b46d8ba</t>
+    <t xml:space="preserve">c9279e1c-712f-41e8-a687-2edc210a3c47</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20191111.1020</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000115300</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153602Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e2c93b0f-0d77-4973-be5e-573355835c38</t>
+    <t xml:space="preserve">20210112T152739Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ea88125-4eeb-488a-91e8-6698e1457f19</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20191126.1120</t>
@@ -209,7 +215,22 @@
     <t xml:space="preserve">A00000115000</t>
   </si>
   <si>
-    <t xml:space="preserve">8b7a32d5-fb4c-4499-a8ad-521bbf7062a4</t>
+    <t xml:space="preserve">6a3d25ab-0ded-446b-ae43-307559bdaa98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20191210.1130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20191210.1130.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000115150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T153055Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee389472-8071-4e75-ab3a-d96eeded8d7b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20191220.1106</t>
@@ -221,22 +242,7 @@
     <t xml:space="preserve">A00000115411</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153857Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f8e90908-66b6-4128-9f21-5c5b3245d726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.YELL.20191210.1130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.YELL.20191210.1130.ISO.TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A00000115150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112d9491-c5b8-4640-b1de-778ff8563235</t>
+    <t xml:space="preserve">090726a8-f450-487b-8535-8c87b425af33</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20200122.1106</t>
@@ -248,10 +254,13 @@
     <t xml:space="preserve">A00000115400</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T180204Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc03ac6c-c09e-40e6-a567-b6931cb2879b</t>
+    <t xml:space="preserve">20210112T151414Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da0c94e4-e824-4dd1-8449-e6ddf0aa2570</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.YELL.20200128.1113</t>
@@ -261,6 +270,90 @@
   </si>
   <si>
     <t xml:space="preserve">A00000054528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c476ffad-e0c4-4724-ac09-aedcb40ff311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200212.1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200212.1034.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000115500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151702Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4557257-7894-488c-bd19-d2b96d80a132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200224.1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200224.1102.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000054829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7c812055-9096-4afe-a45e-d9dc92a7a424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200310.1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200310.1009.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000114899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151518Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d3e8f133-e7e7-42c6-bb76-807f3e598cbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200802.1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200802.1030.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000054544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154410Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b6b5494a-8810-410a-95b2-9b5ab909500c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200825.0852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200825.0852.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000054527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb140fa4-f155-4b3b-a333-baa7faf78b24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200928.0935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.YELL.20200928.0935.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000117333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154402Z</t>
   </si>
 </sst>
 </file>
@@ -598,7 +691,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -652,23 +745,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43656.7055555556</v>
@@ -689,35 +785,38 @@
         <v>0.126</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43735.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43670.7027777778</v>
@@ -738,35 +837,38 @@
         <v>0.252</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43683.7548611111</v>
@@ -787,35 +889,38 @@
         <v>0.211</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43698.6826388889</v>
@@ -836,35 +941,38 @@
         <v>0.095</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43717.6826388889</v>
@@ -885,35 +993,38 @@
         <v>0.17</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43725.66875</v>
@@ -934,35 +1045,38 @@
         <v>0.144</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43740.7340277778</v>
@@ -983,35 +1097,38 @@
         <v>0.17</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43754.6923611111</v>
@@ -1032,35 +1149,38 @@
         <v>0.096</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43768.6833333333</v>
@@ -1081,35 +1201,38 @@
         <v>0.226</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43780.7256944444</v>
@@ -1130,133 +1253,142 @@
         <v>0.183</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>43446.75</v>
+        <v>43795.7638888889</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>43819.7541666667</v>
+        <v>43809.7708333333</v>
       </c>
       <c r="I12" t="n">
-        <v>-19.486</v>
+        <v>-21.869</v>
       </c>
       <c r="J12" t="n">
-        <v>-156.249</v>
+        <v>-170.336</v>
       </c>
       <c r="K12" t="n">
-        <v>0.079</v>
+        <v>0.023</v>
       </c>
       <c r="L12" t="n">
-        <v>0.317</v>
+        <v>0.144</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>43795.7638888889</v>
+        <v>43809.7743055556</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>43809.7708333333</v>
+        <v>43819.7541666667</v>
       </c>
       <c r="I13" t="n">
-        <v>-21.869</v>
+        <v>-19.486</v>
       </c>
       <c r="J13" t="n">
-        <v>-170.336</v>
+        <v>-156.249</v>
       </c>
       <c r="K13" t="n">
-        <v>0.023</v>
+        <v>0.079</v>
       </c>
       <c r="L13" t="n">
-        <v>0.144</v>
+        <v>0.317</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43819.7576388889</v>
@@ -1277,35 +1409,38 @@
         <v>0.244</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43852.7569444444</v>
@@ -1326,17 +1461,332 @@
         <v>0.193</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>43858.7604166667</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43873.7319444444</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-22.749</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-182.081</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>43873.7326388889</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>43885.7513888889</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-13.615</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-118.474</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>43885.7708333333</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>43900.6729166667</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-17.424</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-133.32</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>44017.7604166667</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>44045.6875</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-8.744</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-70.037</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>44054.6569444444</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>44068.6194444444</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.032</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-5.859</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>104</v>
+      </c>
+      <c r="R20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>44068.6291666667</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>44102.6493055556</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-13.042</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-101.906</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
